--- a/요구명세상세.xlsx
+++ b/요구명세상세.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\503\Desktop\개인과제\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LMC_DATA\KRAKEN GIT\gittest\fantastic_broccoli\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>기능내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3회오류시 프로그램종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">계좌번호 비밀번호확인후 출금금액입력 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인메소드로 복귀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메인메뉴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,7 +142,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프로시저와 펑션사용학디</t>
+    <t>메인메소드로 복귀혹은종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌오류시 재실행여부및 복귀 비밀번호는 바로 메인메뉴로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호및 잔액출력은출력 클래스사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호 오류시 오류출력후 재실행여부 묻기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,13 +360,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -660,13 +664,13 @@
   <dimension ref="B1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="10" max="10" width="53.5" customWidth="1"/>
-    <col min="12" max="12" width="40.5" customWidth="1"/>
+    <col min="12" max="12" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -679,22 +683,22 @@
       <c r="D1" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="13"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="2:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="6"/>
@@ -716,27 +720,25 @@
       <c r="C3" s="9"/>
       <c r="D3" s="4"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="8"/>
       <c r="K3" s="3"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="M3" s="3"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -744,7 +746,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="6"/>
       <c r="K4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="3"/>
@@ -753,7 +755,7 @@
     </row>
     <row r="5" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="8"/>
       <c r="E5" s="14" t="s">
         <v>4</v>
@@ -764,13 +766,13 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="7" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="2:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="4"/>
@@ -783,7 +785,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="L6" s="4"/>
     </row>
@@ -792,14 +794,16 @@
       <c r="C7" s="9"/>
       <c r="D7" s="4"/>
       <c r="E7" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -807,33 +811,33 @@
       <c r="C8" s="9"/>
       <c r="D8" s="4"/>
       <c r="E8" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="K8" s="3"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="6"/>
       <c r="E9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
@@ -841,7 +845,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -853,15 +857,15 @@
     </row>
     <row r="11" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7"/>
-      <c r="C11" s="11"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="8"/>
       <c r="E11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
       <c r="J11" s="8"/>
       <c r="K11" s="7" t="s">
         <v>5</v>
@@ -870,12 +874,12 @@
     </row>
     <row r="12" spans="2:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="4"/>
       <c r="E12" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -883,7 +887,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="L12" s="4"/>
     </row>
@@ -892,7 +896,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="4"/>
       <c r="E13" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -907,7 +911,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="4"/>
       <c r="E14" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -922,7 +926,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
       <c r="E15" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -930,18 +934,18 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="2:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -949,41 +953,41 @@
       <c r="I16" s="10"/>
       <c r="J16" s="6"/>
       <c r="K16" s="5" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="L16" s="6"/>
     </row>
     <row r="17" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="7"/>
-      <c r="C17" s="11"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="8"/>
       <c r="E17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
       <c r="J17" s="8"/>
       <c r="K17" s="7"/>
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="2:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="C18" s="13"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="E18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L18" s="8"/>
     </row>
@@ -1009,6 +1013,12 @@
     <mergeCell ref="E14:J14"/>
     <mergeCell ref="E15:J15"/>
     <mergeCell ref="E12:J12"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="B6:D8"/>
+    <mergeCell ref="B9:D11"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E11:J11"/>
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K17:L17"/>
@@ -1023,12 +1033,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="B6:D8"/>
-    <mergeCell ref="B9:D11"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E11:J11"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="E6:J6"/>
